--- a/1. PROBABILITY.xlsx
+++ b/1. PROBABILITY.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="1a" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="29" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>DIGIT</t>
   </si>
@@ -149,6 +151,15 @@
   <si>
     <t>8885</t>
   </si>
+  <si>
+    <t>Sum of 22</t>
+  </si>
+  <si>
+    <t>Sum of 32</t>
+  </si>
+  <si>
+    <t>Sum of 42</t>
+  </si>
 </sst>
 </file>
 
@@ -223,12 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -268,12 +276,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -316,6 +371,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979CAD68-448C-4E8B-A54E-6909693C81D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="2613660" cy="2621280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -460,6 +581,62 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44091.827881944446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="M3:V26" sheet="1a"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="POSITION" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="FULL NUMBER" numFmtId="49">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4254" maxValue="9563"/>
+    </cacheField>
+    <cacheField name="1" numFmtId="0">
+      <sharedItems count="10">
+        <s v="2"/>
+        <s v="7"/>
+        <s v="1"/>
+        <s v="4"/>
+        <s v="9"/>
+        <s v="6"/>
+        <s v="5"/>
+        <s v="0"/>
+        <s v="8"/>
+        <s v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="12" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="750"/>
+    </cacheField>
+    <cacheField name="22" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="750"/>
+    </cacheField>
+    <cacheField name="32" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="750"/>
+    </cacheField>
+    <cacheField name="42" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="750"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="23">
   <r>
@@ -695,8 +872,937 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="23">
+  <r>
+    <n v="1"/>
+    <s v="2279"/>
+    <x v="0"/>
+    <s v="2"/>
+    <s v="7"/>
+    <s v="9"/>
+    <n v="750"/>
+    <n v="750"/>
+    <n v="750"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="2654"/>
+    <x v="0"/>
+    <s v="6"/>
+    <s v="5"/>
+    <s v="4"/>
+    <n v="375"/>
+    <n v="375"/>
+    <n v="375"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="7929"/>
+    <x v="1"/>
+    <s v="9"/>
+    <s v="2"/>
+    <s v="9"/>
+    <n v="187.5"/>
+    <n v="187.5"/>
+    <n v="187.5"/>
+    <n v="187.5"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="1996"/>
+    <x v="2"/>
+    <s v="9"/>
+    <s v="9"/>
+    <s v="6"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="4970"/>
+    <x v="3"/>
+    <s v="9"/>
+    <s v="7"/>
+    <s v="0"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="9331"/>
+    <x v="4"/>
+    <s v="3"/>
+    <s v="3"/>
+    <s v="1"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="6962"/>
+    <x v="5"/>
+    <s v="9"/>
+    <s v="6"/>
+    <s v="2"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="1559"/>
+    <x v="2"/>
+    <s v="5"/>
+    <s v="5"/>
+    <s v="9"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="1220"/>
+    <x v="2"/>
+    <s v="2"/>
+    <s v="2"/>
+    <s v="0"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="5620"/>
+    <x v="6"/>
+    <s v="6"/>
+    <s v="2"/>
+    <s v="0"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="9086"/>
+    <x v="4"/>
+    <s v="0"/>
+    <s v="8"/>
+    <s v="6"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="2051"/>
+    <x v="0"/>
+    <s v="0"/>
+    <s v="5"/>
+    <s v="1"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="0944"/>
+    <x v="7"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="4"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="4336"/>
+    <x v="3"/>
+    <s v="3"/>
+    <s v="3"/>
+    <s v="6"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="8410"/>
+    <x v="8"/>
+    <s v="4"/>
+    <s v="1"/>
+    <s v="0"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="0383"/>
+    <x v="7"/>
+    <s v="3"/>
+    <s v="8"/>
+    <s v="3"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="7473"/>
+    <x v="1"/>
+    <s v="4"/>
+    <s v="7"/>
+    <s v="3"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="3300"/>
+    <x v="9"/>
+    <s v="3"/>
+    <s v="0"/>
+    <s v="0"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="8853"/>
+    <x v="8"/>
+    <s v="8"/>
+    <s v="5"/>
+    <s v="3"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="8885"/>
+    <x v="8"/>
+    <s v="8"/>
+    <s v="8"/>
+    <s v="5"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="4254"/>
+    <x v="3"/>
+    <s v="2"/>
+    <s v="5"/>
+    <s v="4"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="8079"/>
+    <x v="8"/>
+    <s v="0"/>
+    <s v="7"/>
+    <s v="9"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="9563"/>
+    <x v="4"/>
+    <s v="5"/>
+    <s v="6"/>
+    <s v="3"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AG3:AH14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 42" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD3:AE14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 32" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AA3:AB14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 22" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X3:Y14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 12" fld="6" showDataAs="percentOfCol" baseField="0" baseItem="2" numFmtId="10"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="2"/>
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD3:AE14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 12" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AG3:AH12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 12" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="X3:Y14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -776,7 +1882,7 @@
     <dataField name="Sum of 12" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="2" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="3">
@@ -787,7 +1893,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="3">
@@ -811,8 +1917,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AA3:AB12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -872,182 +1978,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of 12" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AD3:AE14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="11">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of 12" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AG3:AH12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="9">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1336,14 +2266,1420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH36"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2500</v>
+      </c>
+      <c r="I3">
+        <v>3500</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(H3:I3)</f>
+        <v>3000</v>
+      </c>
+      <c r="K3">
+        <f>J3/4</f>
+        <v>750</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <f>O3+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>P3+1</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <f>Q3+1</f>
+        <v>4</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <f>S3+1</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="4">
+        <f>T3+1</f>
+        <v>3</v>
+      </c>
+      <c r="V3" s="4">
+        <f>U3+1</f>
+        <v>4</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(H4:I4)</f>
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <f>J4/4</f>
+        <v>375</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f>MID(TEXT($N4,"0000"),O$3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f t="shared" ref="P4:R19" si="0">MID(TEXT($N4,"0000"),P$3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S4" s="7">
+        <f>INDEX($G$3:$K$7,MATCH($M4,$G$3:$G$7,0),5)</f>
+        <v>750</v>
+      </c>
+      <c r="T4" s="7">
+        <f>INDEX($G$3:$K$7,MATCH($M4,$G$3:$G$7,0),5)</f>
+        <v>750</v>
+      </c>
+      <c r="U4" s="7">
+        <f>INDEX($G$3:$K$7,MATCH($M4,$G$3:$G$7,0),5)</f>
+        <v>750</v>
+      </c>
+      <c r="V4" s="7">
+        <f>INDEX($G$3:$K$7,MATCH($M4,$G$3:$G$7,0),5)</f>
+        <v>750</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0.61176470588235299</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>1170</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>1170</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="5" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(H5:I5)</f>
+        <v>750</v>
+      </c>
+      <c r="K5">
+        <f>J5/4</f>
+        <v>187.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" ref="O5:R26" si="1">MID(TEXT($N5,"0000"),O$3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" ref="S5:V26" si="2">INDEX($G$3:$K$7,MATCH($M5,$G$3:$G$7,0),5)</f>
+        <v>375</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>202.5</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>202.5</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="6" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(H6:I6)</f>
+        <v>180</v>
+      </c>
+      <c r="K6">
+        <f>J6/4</f>
+        <v>45</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>135</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(H7:I7)</f>
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <f>J7/4</f>
+        <v>15</v>
+      </c>
+      <c r="M7" s="12">
+        <v>4</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>5.4901960784313725E-2</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>105</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>105</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M8" s="12">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>75</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M9" s="12">
+        <v>4</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>3.1372549019607843E-2</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>60</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH9" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M10" s="12">
+        <v>4</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>3.1372549019607843E-2</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>60</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M11" s="12">
+        <v>4</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>45</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M12" s="12">
+        <v>4</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>45</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M13" s="12">
+        <v>4</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>7.8431372549019607E-3</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE13" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M14" s="12">
+        <v>4</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>1912.5</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>1912.5</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH14" s="20">
+        <v>1912.5</v>
+      </c>
+    </row>
+    <row r="15" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="M15" s="12">
+        <v>4</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="7:34" x14ac:dyDescent="0.3">
+      <c r="G16" s="14"/>
+      <c r="M16" s="12">
+        <v>4</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G17" s="14"/>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G18" s="16"/>
+      <c r="M18" s="5">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G19" s="16"/>
+      <c r="M19" s="5">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="L20" s="17"/>
+      <c r="M20" s="5">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="M22" s="5">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="M23" s="5">
+        <v>5</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="M24" s="5">
+        <v>5</v>
+      </c>
+      <c r="N24" s="6">
+        <v>4254</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6">
+        <v>8079</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G26" s="16"/>
+      <c r="M26" s="5">
+        <v>5</v>
+      </c>
+      <c r="N26" s="6">
+        <v>9563</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G27" s="14"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AH36"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1352,27 +3688,27 @@
       <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>1</v>
       </c>
       <c r="H3">
@@ -1389,72 +3725,72 @@
         <f>J3/4</f>
         <v>750</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f>O3+1</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <f>P3+1</f>
         <v>3</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>Q3+1</f>
         <v>4</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>1</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <f>S3+1</f>
         <v>2</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <f>T3+1</f>
         <v>3</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <f>U3+1</f>
         <v>4</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19" t="s">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19" t="s">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19" t="s">
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4">
@@ -1471,63 +3807,63 @@
         <f>J4/4</f>
         <v>375</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>750</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>750</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>750</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>750</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>0.61176470588235299</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="11">
         <v>0.42352941176470588</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="11">
         <v>0.43137254901960786</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="11">
         <v>0.52156862745098043</v>
       </c>
     </row>
     <row r="5" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>3</v>
       </c>
       <c r="H5">
@@ -1544,47 +3880,47 @@
         <f>J5/4</f>
         <v>187.5</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>2</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="X5" s="9" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="X5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>0.10588235294117647</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="11">
         <v>0.2196078431372549</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="11">
         <v>0.25882352941176473</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="11">
         <v>0.22745098039215686</v>
       </c>
     </row>
     <row r="6" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>4</v>
       </c>
       <c r="H6">
@@ -1598,47 +3934,47 @@
         <f>J6/4</f>
         <v>45</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>3</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="X6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="10">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="X6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="9">
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="11">
         <v>0.19215686274509805</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="11">
         <v>0.14509803921568629</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="11">
         <v>8.6274509803921567E-2</v>
       </c>
     </row>
     <row r="7" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
       <c r="H7">
@@ -1652,511 +3988,511 @@
         <f>J7/4</f>
         <v>15</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>4</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="X7" s="11" t="s">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="X7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="11">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="11">
         <v>5.4901960784313725E-2</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="11">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="11">
         <v>5.4901960784313725E-2</v>
       </c>
     </row>
     <row r="8" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>4</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="X8" s="11" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="X8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="11">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="11">
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="AG8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH8" s="12">
+      <c r="AG8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="11">
         <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="9" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>4</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="X9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="X9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
     </row>
     <row r="10" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>4</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="X10" s="11" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="X10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="11">
         <v>3.1372549019607843E-2</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="11">
         <v>1.5686274509803921E-2</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AD10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="11">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="11">
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="11" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>4</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="X11" s="11" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="X11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="11">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AA11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="11">
         <v>1.5686274509803921E-2</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AD11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="11">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="11">
         <v>7.8431372549019607E-3</v>
       </c>
     </row>
     <row r="12" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>4</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="X12" s="11" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="X12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="11">
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="11">
         <v>1</v>
       </c>
-      <c r="AD12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE12" s="12">
+      <c r="AD12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="11">
         <v>7.8431372549019607E-3</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>4</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="X13" s="11" t="s">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="X13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="11">
         <v>7.8431372549019607E-3</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AD13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="11">
         <v>7.8431372549019607E-3</v>
       </c>
     </row>
     <row r="14" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>4</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="X14" s="11" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="X14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="11">
         <v>1</v>
       </c>
-      <c r="AD14" s="11" t="s">
+      <c r="AD14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>4</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="7:34" x14ac:dyDescent="0.3">
-      <c r="G16" s="15"/>
-      <c r="M16" s="13">
+      <c r="G16" s="14"/>
+      <c r="M16" s="12">
         <v>4</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G17" s="15"/>
-      <c r="M17" s="6">
+      <c r="G17" s="14"/>
+      <c r="M17" s="5">
         <v>5</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="X17" s="16"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G18" s="17"/>
-      <c r="M18" s="6">
+      <c r="G18" s="16"/>
+      <c r="M18" s="5">
         <v>5</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G19" s="17"/>
-      <c r="M19" s="6">
+      <c r="G19" s="16"/>
+      <c r="M19" s="5">
         <v>5</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="L20" s="18"/>
-      <c r="M20" s="6">
+      <c r="L20" s="17"/>
+      <c r="M20" s="5">
         <v>5</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>5</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>5</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>5</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
     </row>
     <row r="24" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>5</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>4254</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>5</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>8079</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G26" s="17"/>
-      <c r="M26" s="6">
+      <c r="G26" s="16"/>
+      <c r="M26" s="5">
         <v>5</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>9563</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G27" s="15"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="G27" s="14"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
